--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2425.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2425.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.031634928764921</v>
+        <v>1.140870094299316</v>
       </c>
       <c r="B1">
-        <v>2.088487051367179</v>
+        <v>1.685660600662231</v>
       </c>
       <c r="C1">
-        <v>8.992172822020018</v>
+        <v>3.589289665222168</v>
       </c>
       <c r="D1">
-        <v>2.099802319495611</v>
+        <v>3.459939956665039</v>
       </c>
       <c r="E1">
-        <v>0.9944287724730947</v>
+        <v>0.9598383903503418</v>
       </c>
     </row>
   </sheetData>
